--- a/数据整理/stocks/其他/PLD-安博.xlsx
+++ b/数据整理/stocks/其他/PLD-安博.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PLD-安博.xlsx
+++ b/数据整理/stocks/其他/PLD-安博.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,392 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="3">
@@ -1295,13 +1694,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PLD-安博.xlsx
+++ b/数据整理/stocks/其他/PLD-安博.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.27</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.91</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1710,13 +1775,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PLD-安博.xlsx
+++ b/数据整理/stocks/其他/PLD-安博.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.1</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.27</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.91</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PLD-安博.xlsx
+++ b/数据整理/stocks/其他/PLD-安博.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,395 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2453</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2453</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2453</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>070031</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实全球房地产(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -853,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -914,22 +632,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4474</t>
+          <t>0.3355</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -952,22 +670,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4474</t>
+          <t>0.3355</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -990,22 +708,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4474</t>
+          <t>0.3355</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1028,22 +746,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1819</t>
+          <t>0.1575</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1066,22 +784,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1819</t>
+          <t>0.1575</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1104,22 +822,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0988</t>
+          <t>0.1103</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1132,32 +850,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.34</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0451</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1170,32 +888,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>95.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0316</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1218,26 +936,102 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1312,22 +1106,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5178</t>
+          <t>0.4545</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1350,22 +1144,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5178</t>
+          <t>0.4545</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1388,22 +1182,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5178</t>
+          <t>0.4545</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1426,22 +1220,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2327</t>
+          <t>0.2142</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1464,22 +1258,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2327</t>
+          <t>0.2142</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1502,12 +1296,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1517,7 +1311,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1310</t>
+          <t>0.1291</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1530,36 +1324,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>006555</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>85.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0511</t>
+          <t>0.0886</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1568,32 +1362,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1606,36 +1400,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>320017</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0421</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1710,22 +1504,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4545</t>
+          <t>0.5178</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1748,22 +1542,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4545</t>
+          <t>0.5178</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1786,22 +1580,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4545</t>
+          <t>0.5178</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1824,22 +1618,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2142</t>
+          <t>0.2327</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1862,22 +1656,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2142</t>
+          <t>0.2327</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1900,12 +1694,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1915,7 +1709,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1291</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1928,36 +1722,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006555</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.41</t>
+          <t>96.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1966,32 +1760,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0463</t>
+          <t>0.0411</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2004,36 +1798,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>320017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0421</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,7 +1862,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2108,22 +1902,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3355</t>
+          <t>0.4474</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2146,22 +1940,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3355</t>
+          <t>0.4474</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2184,22 +1978,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3355</t>
+          <t>0.4474</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2222,22 +2016,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1575</t>
+          <t>0.1819</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2260,22 +2054,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1575</t>
+          <t>0.1819</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2298,22 +2092,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1103</t>
+          <t>0.0988</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2326,32 +2120,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>96.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2364,32 +2158,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0316</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2412,102 +2206,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006555</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>014002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浦银安盛全球智能科技股票（QDII）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>81.03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2521,112 +2239,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.53</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.1</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.27</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.91</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.02</v>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/PLD-安博.xlsx
+++ b/数据整理/stocks/其他/PLD-安博.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -627,27 +644,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）人民币份额</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3355</t>
+          <t>0.3066</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -665,27 +682,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）美钞</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3355</t>
+          <t>0.3066</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -703,27 +720,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）美汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3355</t>
+          <t>0.3066</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -741,27 +758,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>广发美国房地产指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1575</t>
+          <t>0.1376</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -779,27 +796,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>广发美国房地产指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1575</t>
+          <t>0.1376</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -817,27 +834,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1103</t>
+          <t>0.0633</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -855,27 +872,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -893,27 +910,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>嘉实全球房地产（QDII）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0316</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -931,27 +948,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>诺安全球收益不动产（QDII）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>73.76</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -964,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006555</t>
+          <t>016278</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
+          <t>广发美国房地产指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1002,12 +1019,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014002</t>
+          <t>016279</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浦银安盛全球智能科技股票（QDII）C</t>
+          <t>广发美国房地产指数（QDII）美元C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1017,21 +1034,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,22 +1123,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4545</t>
+          <t>0.3355</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1144,22 +1161,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4545</t>
+          <t>0.3355</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1182,22 +1199,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4545</t>
+          <t>0.3355</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1220,22 +1237,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2142</t>
+          <t>0.1575</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1258,22 +1275,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2142</t>
+          <t>0.1575</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1296,22 +1313,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1291</t>
+          <t>0.1103</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1324,36 +1341,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006555</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.41</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1389,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>95.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0463</t>
+          <t>0.0316</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1400,36 +1417,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>320017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0421</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1504,22 +1597,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5178</t>
+          <t>0.4545</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1542,22 +1635,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5178</t>
+          <t>0.4545</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1580,22 +1673,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5178</t>
+          <t>0.4545</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1618,22 +1711,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2327</t>
+          <t>0.2142</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1656,22 +1749,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2327</t>
+          <t>0.2142</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1694,12 +1787,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1709,7 +1802,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1310</t>
+          <t>0.1291</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1722,36 +1815,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>006555</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>85.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0511</t>
+          <t>0.0886</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1760,32 +1853,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1798,36 +1891,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>320017</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0421</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1955,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1907,17 +2000,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4474</t>
+          <t>0.5178</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1945,17 +2038,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4474</t>
+          <t>0.5178</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1983,17 +2076,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4474</t>
+          <t>0.5178</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2016,22 +2109,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1819</t>
+          <t>0.2327</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2054,22 +2147,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1819</t>
+          <t>0.2327</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2092,22 +2185,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0988</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2130,22 +2223,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.34</t>
+          <t>96.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0451</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2168,22 +2261,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0411</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2206,26 +2299,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2234,6 +2327,404 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
